--- a/6/1/2/1/2/Suscripciones diarias por plazo original, bancos reciben tasa fija 2010 - Diaria.xlsx
+++ b/6/1/2/1/2/Suscripciones diarias por plazo original, bancos reciben tasa fija 2010 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Serie</t>
   </si>
@@ -46,634 +46,517 @@
     <t>10 años y más</t>
   </si>
   <si>
-    <t>05-01-2010</t>
-  </si>
-  <si>
-    <t>06-01-2010</t>
-  </si>
-  <si>
-    <t>07-01-2010</t>
-  </si>
-  <si>
-    <t>08-01-2010</t>
-  </si>
-  <si>
-    <t>11-01-2010</t>
-  </si>
-  <si>
-    <t>12-01-2010</t>
-  </si>
-  <si>
-    <t>13-01-2010</t>
-  </si>
-  <si>
-    <t>15-01-2010</t>
-  </si>
-  <si>
-    <t>19-01-2010</t>
-  </si>
-  <si>
-    <t>21-01-2010</t>
-  </si>
-  <si>
-    <t>22-01-2010</t>
-  </si>
-  <si>
-    <t>25-01-2010</t>
-  </si>
-  <si>
-    <t>26-01-2010</t>
-  </si>
-  <si>
-    <t>27-01-2010</t>
-  </si>
-  <si>
-    <t>29-01-2010</t>
-  </si>
-  <si>
-    <t>02-02-2010</t>
-  </si>
-  <si>
-    <t>03-02-2010</t>
-  </si>
-  <si>
-    <t>04-02-2010</t>
-  </si>
-  <si>
-    <t>05-02-2010</t>
-  </si>
-  <si>
-    <t>09-02-2010</t>
-  </si>
-  <si>
-    <t>10-02-2010</t>
-  </si>
-  <si>
-    <t>11-02-2010</t>
-  </si>
-  <si>
-    <t>12-02-2010</t>
-  </si>
-  <si>
-    <t>16-02-2010</t>
-  </si>
-  <si>
-    <t>17-02-2010</t>
-  </si>
-  <si>
-    <t>18-02-2010</t>
-  </si>
-  <si>
-    <t>19-02-2010</t>
-  </si>
-  <si>
-    <t>23-02-2010</t>
-  </si>
-  <si>
-    <t>24-02-2010</t>
-  </si>
-  <si>
-    <t>25-02-2010</t>
-  </si>
-  <si>
-    <t>26-02-2010</t>
-  </si>
-  <si>
-    <t>01-03-2010</t>
-  </si>
-  <si>
-    <t>02-03-2010</t>
-  </si>
-  <si>
-    <t>03-03-2010</t>
-  </si>
-  <si>
-    <t>04-03-2010</t>
-  </si>
-  <si>
-    <t>05-03-2010</t>
-  </si>
-  <si>
-    <t>08-03-2010</t>
-  </si>
-  <si>
-    <t>09-03-2010</t>
-  </si>
-  <si>
-    <t>10-03-2010</t>
-  </si>
-  <si>
-    <t>16-03-2010</t>
-  </si>
-  <si>
-    <t>17-03-2010</t>
-  </si>
-  <si>
-    <t>18-03-2010</t>
-  </si>
-  <si>
-    <t>19-03-2010</t>
-  </si>
-  <si>
-    <t>24-03-2010</t>
-  </si>
-  <si>
-    <t>25-03-2010</t>
-  </si>
-  <si>
-    <t>26-03-2010</t>
-  </si>
-  <si>
-    <t>29-03-2010</t>
-  </si>
-  <si>
-    <t>30-03-2010</t>
-  </si>
-  <si>
-    <t>05-04-2010</t>
-  </si>
-  <si>
-    <t>06-04-2010</t>
-  </si>
-  <si>
-    <t>07-04-2010</t>
-  </si>
-  <si>
-    <t>08-04-2010</t>
-  </si>
-  <si>
-    <t>09-04-2010</t>
-  </si>
-  <si>
-    <t>12-04-2010</t>
-  </si>
-  <si>
-    <t>13-04-2010</t>
-  </si>
-  <si>
-    <t>14-04-2010</t>
-  </si>
-  <si>
-    <t>15-04-2010</t>
-  </si>
-  <si>
-    <t>16-04-2010</t>
-  </si>
-  <si>
-    <t>19-04-2010</t>
-  </si>
-  <si>
-    <t>20-04-2010</t>
-  </si>
-  <si>
-    <t>22-04-2010</t>
-  </si>
-  <si>
-    <t>23-04-2010</t>
-  </si>
-  <si>
-    <t>26-04-2010</t>
-  </si>
-  <si>
-    <t>28-04-2010</t>
-  </si>
-  <si>
-    <t>29-04-2010</t>
-  </si>
-  <si>
-    <t>30-04-2010</t>
-  </si>
-  <si>
-    <t>04-05-2010</t>
-  </si>
-  <si>
-    <t>05-05-2010</t>
-  </si>
-  <si>
-    <t>06-05-2010</t>
-  </si>
-  <si>
-    <t>07-05-2010</t>
-  </si>
-  <si>
-    <t>10-05-2010</t>
-  </si>
-  <si>
-    <t>11-05-2010</t>
-  </si>
-  <si>
-    <t>12-05-2010</t>
-  </si>
-  <si>
-    <t>13-05-2010</t>
-  </si>
-  <si>
-    <t>14-05-2010</t>
-  </si>
-  <si>
-    <t>17-05-2010</t>
-  </si>
-  <si>
-    <t>18-05-2010</t>
-  </si>
-  <si>
-    <t>19-05-2010</t>
-  </si>
-  <si>
-    <t>20-05-2010</t>
-  </si>
-  <si>
-    <t>24-05-2010</t>
-  </si>
-  <si>
-    <t>25-05-2010</t>
-  </si>
-  <si>
-    <t>26-05-2010</t>
-  </si>
-  <si>
-    <t>27-05-2010</t>
-  </si>
-  <si>
-    <t>28-05-2010</t>
-  </si>
-  <si>
-    <t>03-06-2010</t>
-  </si>
-  <si>
-    <t>04-06-2010</t>
-  </si>
-  <si>
-    <t>07-06-2010</t>
-  </si>
-  <si>
-    <t>08-06-2010</t>
-  </si>
-  <si>
-    <t>09-06-2010</t>
-  </si>
-  <si>
-    <t>10-06-2010</t>
-  </si>
-  <si>
-    <t>11-06-2010</t>
-  </si>
-  <si>
-    <t>14-06-2010</t>
-  </si>
-  <si>
-    <t>15-06-2010</t>
-  </si>
-  <si>
-    <t>16-06-2010</t>
-  </si>
-  <si>
-    <t>17-06-2010</t>
-  </si>
-  <si>
-    <t>18-06-2010</t>
-  </si>
-  <si>
-    <t>21-06-2010</t>
-  </si>
-  <si>
-    <t>22-06-2010</t>
-  </si>
-  <si>
-    <t>23-06-2010</t>
-  </si>
-  <si>
-    <t>24-06-2010</t>
-  </si>
-  <si>
-    <t>29-06-2010</t>
-  </si>
-  <si>
-    <t>30-06-2010</t>
-  </si>
-  <si>
-    <t>01-07-2010</t>
-  </si>
-  <si>
-    <t>02-07-2010</t>
-  </si>
-  <si>
-    <t>06-07-2010</t>
-  </si>
-  <si>
-    <t>07-07-2010</t>
-  </si>
-  <si>
-    <t>08-07-2010</t>
-  </si>
-  <si>
-    <t>09-07-2010</t>
-  </si>
-  <si>
-    <t>12-07-2010</t>
-  </si>
-  <si>
-    <t>13-07-2010</t>
-  </si>
-  <si>
-    <t>14-07-2010</t>
-  </si>
-  <si>
-    <t>15-07-2010</t>
-  </si>
-  <si>
-    <t>20-07-2010</t>
-  </si>
-  <si>
-    <t>21-07-2010</t>
-  </si>
-  <si>
-    <t>22-07-2010</t>
-  </si>
-  <si>
-    <t>27-07-2010</t>
-  </si>
-  <si>
-    <t>28-07-2010</t>
-  </si>
-  <si>
-    <t>29-07-2010</t>
-  </si>
-  <si>
-    <t>30-07-2010</t>
-  </si>
-  <si>
-    <t>02-08-2010</t>
-  </si>
-  <si>
-    <t>04-08-2010</t>
-  </si>
-  <si>
-    <t>05-08-2010</t>
-  </si>
-  <si>
-    <t>06-08-2010</t>
-  </si>
-  <si>
-    <t>09-08-2010</t>
-  </si>
-  <si>
-    <t>10-08-2010</t>
-  </si>
-  <si>
-    <t>11-08-2010</t>
-  </si>
-  <si>
-    <t>12-08-2010</t>
-  </si>
-  <si>
-    <t>13-08-2010</t>
-  </si>
-  <si>
-    <t>16-08-2010</t>
-  </si>
-  <si>
-    <t>18-08-2010</t>
-  </si>
-  <si>
-    <t>19-08-2010</t>
-  </si>
-  <si>
-    <t>23-08-2010</t>
-  </si>
-  <si>
-    <t>24-08-2010</t>
-  </si>
-  <si>
-    <t>25-08-2010</t>
-  </si>
-  <si>
-    <t>26-08-2010</t>
-  </si>
-  <si>
-    <t>27-08-2010</t>
-  </si>
-  <si>
-    <t>30-08-2010</t>
-  </si>
-  <si>
-    <t>31-08-2010</t>
-  </si>
-  <si>
-    <t>01-09-2010</t>
-  </si>
-  <si>
-    <t>02-09-2010</t>
-  </si>
-  <si>
-    <t>03-09-2010</t>
-  </si>
-  <si>
-    <t>07-09-2010</t>
-  </si>
-  <si>
-    <t>08-09-2010</t>
-  </si>
-  <si>
-    <t>09-09-2010</t>
-  </si>
-  <si>
-    <t>10-09-2010</t>
-  </si>
-  <si>
-    <t>13-09-2010</t>
-  </si>
-  <si>
-    <t>14-09-2010</t>
-  </si>
-  <si>
-    <t>15-09-2010</t>
-  </si>
-  <si>
-    <t>16-09-2010</t>
-  </si>
-  <si>
-    <t>21-09-2010</t>
-  </si>
-  <si>
-    <t>22-09-2010</t>
-  </si>
-  <si>
-    <t>23-09-2010</t>
-  </si>
-  <si>
-    <t>24-09-2010</t>
-  </si>
-  <si>
-    <t>27-09-2010</t>
-  </si>
-  <si>
-    <t>28-09-2010</t>
-  </si>
-  <si>
-    <t>30-09-2010</t>
-  </si>
-  <si>
-    <t>01-10-2010</t>
-  </si>
-  <si>
-    <t>04-10-2010</t>
-  </si>
-  <si>
-    <t>05-10-2010</t>
-  </si>
-  <si>
-    <t>06-10-2010</t>
-  </si>
-  <si>
-    <t>07-10-2010</t>
-  </si>
-  <si>
-    <t>08-10-2010</t>
-  </si>
-  <si>
-    <t>13-10-2010</t>
-  </si>
-  <si>
-    <t>14-10-2010</t>
-  </si>
-  <si>
-    <t>15-10-2010</t>
-  </si>
-  <si>
-    <t>18-10-2010</t>
-  </si>
-  <si>
-    <t>20-10-2010</t>
-  </si>
-  <si>
-    <t>21-10-2010</t>
-  </si>
-  <si>
-    <t>26-10-2010</t>
-  </si>
-  <si>
-    <t>27-10-2010</t>
-  </si>
-  <si>
-    <t>28-10-2010</t>
-  </si>
-  <si>
-    <t>29-10-2010</t>
-  </si>
-  <si>
-    <t>02-11-2010</t>
-  </si>
-  <si>
-    <t>03-11-2010</t>
-  </si>
-  <si>
-    <t>04-11-2010</t>
-  </si>
-  <si>
-    <t>05-11-2010</t>
-  </si>
-  <si>
-    <t>08-11-2010</t>
-  </si>
-  <si>
-    <t>09-11-2010</t>
-  </si>
-  <si>
-    <t>10-11-2010</t>
-  </si>
-  <si>
-    <t>12-11-2010</t>
-  </si>
-  <si>
-    <t>15-11-2010</t>
-  </si>
-  <si>
-    <t>16-11-2010</t>
-  </si>
-  <si>
-    <t>17-11-2010</t>
-  </si>
-  <si>
-    <t>18-11-2010</t>
-  </si>
-  <si>
-    <t>19-11-2010</t>
-  </si>
-  <si>
-    <t>22-11-2010</t>
-  </si>
-  <si>
-    <t>23-11-2010</t>
-  </si>
-  <si>
-    <t>24-11-2010</t>
-  </si>
-  <si>
-    <t>25-11-2010</t>
-  </si>
-  <si>
-    <t>26-11-2010</t>
-  </si>
-  <si>
-    <t>29-11-2010</t>
-  </si>
-  <si>
-    <t>30-11-2010</t>
-  </si>
-  <si>
-    <t>01-12-2010</t>
-  </si>
-  <si>
-    <t>02-12-2010</t>
-  </si>
-  <si>
-    <t>03-12-2010</t>
-  </si>
-  <si>
-    <t>06-12-2010</t>
-  </si>
-  <si>
-    <t>07-12-2010</t>
-  </si>
-  <si>
-    <t>09-12-2010</t>
-  </si>
-  <si>
-    <t>10-12-2010</t>
-  </si>
-  <si>
-    <t>13-12-2010</t>
-  </si>
-  <si>
-    <t>14-12-2010</t>
-  </si>
-  <si>
-    <t>15-12-2010</t>
-  </si>
-  <si>
-    <t>16-12-2010</t>
-  </si>
-  <si>
-    <t>17-12-2010</t>
-  </si>
-  <si>
-    <t>20-12-2010</t>
-  </si>
-  <si>
-    <t>21-12-2010</t>
-  </si>
-  <si>
-    <t>22-12-2010</t>
-  </si>
-  <si>
-    <t>23-12-2010</t>
-  </si>
-  <si>
-    <t>24-12-2010</t>
-  </si>
-  <si>
-    <t>28-12-2010</t>
+    <t>05-01-2009</t>
+  </si>
+  <si>
+    <t>07-01-2009</t>
+  </si>
+  <si>
+    <t>08-01-2009</t>
+  </si>
+  <si>
+    <t>09-01-2009</t>
+  </si>
+  <si>
+    <t>15-01-2009</t>
+  </si>
+  <si>
+    <t>22-01-2009</t>
+  </si>
+  <si>
+    <t>23-01-2009</t>
+  </si>
+  <si>
+    <t>27-01-2009</t>
+  </si>
+  <si>
+    <t>29-01-2009</t>
+  </si>
+  <si>
+    <t>03-02-2009</t>
+  </si>
+  <si>
+    <t>06-02-2009</t>
+  </si>
+  <si>
+    <t>09-02-2009</t>
+  </si>
+  <si>
+    <t>10-02-2009</t>
+  </si>
+  <si>
+    <t>12-02-2009</t>
+  </si>
+  <si>
+    <t>13-02-2009</t>
+  </si>
+  <si>
+    <t>19-02-2009</t>
+  </si>
+  <si>
+    <t>20-02-2009</t>
+  </si>
+  <si>
+    <t>23-02-2009</t>
+  </si>
+  <si>
+    <t>24-02-2009</t>
+  </si>
+  <si>
+    <t>26-02-2009</t>
+  </si>
+  <si>
+    <t>27-02-2009</t>
+  </si>
+  <si>
+    <t>03-03-2009</t>
+  </si>
+  <si>
+    <t>04-03-2009</t>
+  </si>
+  <si>
+    <t>05-03-2009</t>
+  </si>
+  <si>
+    <t>10-03-2009</t>
+  </si>
+  <si>
+    <t>12-03-2009</t>
+  </si>
+  <si>
+    <t>13-03-2009</t>
+  </si>
+  <si>
+    <t>16-03-2009</t>
+  </si>
+  <si>
+    <t>17-03-2009</t>
+  </si>
+  <si>
+    <t>18-03-2009</t>
+  </si>
+  <si>
+    <t>19-03-2009</t>
+  </si>
+  <si>
+    <t>20-03-2009</t>
+  </si>
+  <si>
+    <t>23-03-2009</t>
+  </si>
+  <si>
+    <t>24-03-2009</t>
+  </si>
+  <si>
+    <t>25-03-2009</t>
+  </si>
+  <si>
+    <t>26-03-2009</t>
+  </si>
+  <si>
+    <t>31-03-2009</t>
+  </si>
+  <si>
+    <t>01-04-2009</t>
+  </si>
+  <si>
+    <t>02-04-2009</t>
+  </si>
+  <si>
+    <t>03-04-2009</t>
+  </si>
+  <si>
+    <t>07-04-2009</t>
+  </si>
+  <si>
+    <t>08-04-2009</t>
+  </si>
+  <si>
+    <t>13-04-2009</t>
+  </si>
+  <si>
+    <t>14-04-2009</t>
+  </si>
+  <si>
+    <t>15-04-2009</t>
+  </si>
+  <si>
+    <t>16-04-2009</t>
+  </si>
+  <si>
+    <t>21-04-2009</t>
+  </si>
+  <si>
+    <t>22-04-2009</t>
+  </si>
+  <si>
+    <t>23-04-2009</t>
+  </si>
+  <si>
+    <t>24-04-2009</t>
+  </si>
+  <si>
+    <t>27-04-2009</t>
+  </si>
+  <si>
+    <t>28-04-2009</t>
+  </si>
+  <si>
+    <t>29-04-2009</t>
+  </si>
+  <si>
+    <t>30-04-2009</t>
+  </si>
+  <si>
+    <t>04-05-2009</t>
+  </si>
+  <si>
+    <t>06-05-2009</t>
+  </si>
+  <si>
+    <t>07-05-2009</t>
+  </si>
+  <si>
+    <t>08-05-2009</t>
+  </si>
+  <si>
+    <t>12-05-2009</t>
+  </si>
+  <si>
+    <t>13-05-2009</t>
+  </si>
+  <si>
+    <t>14-05-2009</t>
+  </si>
+  <si>
+    <t>15-05-2009</t>
+  </si>
+  <si>
+    <t>18-05-2009</t>
+  </si>
+  <si>
+    <t>20-05-2009</t>
+  </si>
+  <si>
+    <t>22-05-2009</t>
+  </si>
+  <si>
+    <t>27-05-2009</t>
+  </si>
+  <si>
+    <t>28-05-2009</t>
+  </si>
+  <si>
+    <t>29-05-2009</t>
+  </si>
+  <si>
+    <t>01-06-2009</t>
+  </si>
+  <si>
+    <t>02-06-2009</t>
+  </si>
+  <si>
+    <t>03-06-2009</t>
+  </si>
+  <si>
+    <t>04-06-2009</t>
+  </si>
+  <si>
+    <t>05-06-2009</t>
+  </si>
+  <si>
+    <t>08-06-2009</t>
+  </si>
+  <si>
+    <t>10-06-2009</t>
+  </si>
+  <si>
+    <t>12-06-2009</t>
+  </si>
+  <si>
+    <t>16-06-2009</t>
+  </si>
+  <si>
+    <t>17-06-2009</t>
+  </si>
+  <si>
+    <t>18-06-2009</t>
+  </si>
+  <si>
+    <t>24-06-2009</t>
+  </si>
+  <si>
+    <t>25-06-2009</t>
+  </si>
+  <si>
+    <t>02-07-2009</t>
+  </si>
+  <si>
+    <t>08-07-2009</t>
+  </si>
+  <si>
+    <t>09-07-2009</t>
+  </si>
+  <si>
+    <t>10-07-2009</t>
+  </si>
+  <si>
+    <t>13-07-2009</t>
+  </si>
+  <si>
+    <t>14-07-2009</t>
+  </si>
+  <si>
+    <t>15-07-2009</t>
+  </si>
+  <si>
+    <t>17-07-2009</t>
+  </si>
+  <si>
+    <t>20-07-2009</t>
+  </si>
+  <si>
+    <t>21-07-2009</t>
+  </si>
+  <si>
+    <t>23-07-2009</t>
+  </si>
+  <si>
+    <t>24-07-2009</t>
+  </si>
+  <si>
+    <t>27-07-2009</t>
+  </si>
+  <si>
+    <t>28-07-2009</t>
+  </si>
+  <si>
+    <t>29-07-2009</t>
+  </si>
+  <si>
+    <t>30-07-2009</t>
+  </si>
+  <si>
+    <t>31-07-2009</t>
+  </si>
+  <si>
+    <t>03-08-2009</t>
+  </si>
+  <si>
+    <t>05-08-2009</t>
+  </si>
+  <si>
+    <t>06-08-2009</t>
+  </si>
+  <si>
+    <t>07-08-2009</t>
+  </si>
+  <si>
+    <t>10-08-2009</t>
+  </si>
+  <si>
+    <t>11-08-2009</t>
+  </si>
+  <si>
+    <t>13-08-2009</t>
+  </si>
+  <si>
+    <t>14-08-2009</t>
+  </si>
+  <si>
+    <t>18-08-2009</t>
+  </si>
+  <si>
+    <t>19-08-2009</t>
+  </si>
+  <si>
+    <t>24-08-2009</t>
+  </si>
+  <si>
+    <t>25-08-2009</t>
+  </si>
+  <si>
+    <t>26-08-2009</t>
+  </si>
+  <si>
+    <t>28-08-2009</t>
+  </si>
+  <si>
+    <t>01-09-2009</t>
+  </si>
+  <si>
+    <t>02-09-2009</t>
+  </si>
+  <si>
+    <t>04-09-2009</t>
+  </si>
+  <si>
+    <t>08-09-2009</t>
+  </si>
+  <si>
+    <t>09-09-2009</t>
+  </si>
+  <si>
+    <t>11-09-2009</t>
+  </si>
+  <si>
+    <t>14-09-2009</t>
+  </si>
+  <si>
+    <t>15-09-2009</t>
+  </si>
+  <si>
+    <t>17-09-2009</t>
+  </si>
+  <si>
+    <t>22-09-2009</t>
+  </si>
+  <si>
+    <t>23-09-2009</t>
+  </si>
+  <si>
+    <t>24-09-2009</t>
+  </si>
+  <si>
+    <t>25-09-2009</t>
+  </si>
+  <si>
+    <t>29-09-2009</t>
+  </si>
+  <si>
+    <t>01-10-2009</t>
+  </si>
+  <si>
+    <t>02-10-2009</t>
+  </si>
+  <si>
+    <t>06-10-2009</t>
+  </si>
+  <si>
+    <t>07-10-2009</t>
+  </si>
+  <si>
+    <t>08-10-2009</t>
+  </si>
+  <si>
+    <t>09-10-2009</t>
+  </si>
+  <si>
+    <t>13-10-2009</t>
+  </si>
+  <si>
+    <t>14-10-2009</t>
+  </si>
+  <si>
+    <t>15-10-2009</t>
+  </si>
+  <si>
+    <t>16-10-2009</t>
+  </si>
+  <si>
+    <t>20-10-2009</t>
+  </si>
+  <si>
+    <t>21-10-2009</t>
+  </si>
+  <si>
+    <t>22-10-2009</t>
+  </si>
+  <si>
+    <t>23-10-2009</t>
+  </si>
+  <si>
+    <t>26-10-2009</t>
+  </si>
+  <si>
+    <t>27-10-2009</t>
+  </si>
+  <si>
+    <t>28-10-2009</t>
+  </si>
+  <si>
+    <t>29-10-2009</t>
+  </si>
+  <si>
+    <t>30-10-2009</t>
+  </si>
+  <si>
+    <t>03-11-2009</t>
+  </si>
+  <si>
+    <t>05-11-2009</t>
+  </si>
+  <si>
+    <t>06-11-2009</t>
+  </si>
+  <si>
+    <t>09-11-2009</t>
+  </si>
+  <si>
+    <t>10-11-2009</t>
+  </si>
+  <si>
+    <t>11-11-2009</t>
+  </si>
+  <si>
+    <t>12-11-2009</t>
+  </si>
+  <si>
+    <t>13-11-2009</t>
+  </si>
+  <si>
+    <t>16-11-2009</t>
+  </si>
+  <si>
+    <t>17-11-2009</t>
+  </si>
+  <si>
+    <t>18-11-2009</t>
+  </si>
+  <si>
+    <t>19-11-2009</t>
+  </si>
+  <si>
+    <t>20-11-2009</t>
+  </si>
+  <si>
+    <t>23-11-2009</t>
+  </si>
+  <si>
+    <t>25-11-2009</t>
+  </si>
+  <si>
+    <t>30-11-2009</t>
+  </si>
+  <si>
+    <t>01-12-2009</t>
+  </si>
+  <si>
+    <t>02-12-2009</t>
+  </si>
+  <si>
+    <t>04-12-2009</t>
+  </si>
+  <si>
+    <t>07-12-2009</t>
+  </si>
+  <si>
+    <t>15-12-2009</t>
+  </si>
+  <si>
+    <t>17-12-2009</t>
+  </si>
+  <si>
+    <t>18-12-2009</t>
+  </si>
+  <si>
+    <t>21-12-2009</t>
+  </si>
+  <si>
+    <t>22-12-2009</t>
+  </si>
+  <si>
+    <t>23-12-2009</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J211"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1074,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1083,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1106,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1118,16 +1001,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1138,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1156,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1170,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1188,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1202,7 +1085,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1214,13 +1097,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1234,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1252,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1266,7 +1149,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1278,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1298,7 +1181,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1310,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1330,7 +1213,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1351,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1362,7 +1245,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1380,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1394,10 +1277,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1426,7 +1309,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1438,16 +1321,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1458,10 +1341,10 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1470,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1490,10 +1373,10 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1522,10 +1405,10 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1540,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I16">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1554,7 +1437,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1572,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1586,7 +1469,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1598,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1618,7 +1501,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1636,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1650,7 +1533,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1668,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1682,7 +1565,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1703,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1746,10 +1629,10 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1764,13 +1647,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1778,7 +1661,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1796,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1810,10 +1693,10 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1822,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1842,10 +1725,10 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1854,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1874,28 +1757,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1938,13 +1821,13 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2002,7 +1885,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2014,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2034,7 +1917,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2046,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2066,7 +1949,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2078,13 +1961,13 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2098,7 +1981,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2110,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2130,7 +2013,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2145,13 +2028,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2162,7 +2045,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2180,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2194,7 +2077,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2206,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2226,7 +2109,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2238,13 +2121,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2258,7 +2141,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2270,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2290,7 +2173,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2302,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2322,10 +2205,10 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2334,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2354,7 +2237,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2369,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2386,7 +2269,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2398,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2418,13 +2301,13 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2436,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2450,7 +2333,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2471,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2482,7 +2365,7 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2494,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2514,13 +2397,13 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2532,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2546,13 +2429,13 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2567,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2578,10 +2461,10 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2602,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2610,7 +2493,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2622,16 +2505,16 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2642,7 +2525,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2654,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2663,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2674,7 +2557,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2692,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2706,7 +2589,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2718,19 +2601,19 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2738,10 +2621,10 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2750,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I54">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2770,28 +2653,28 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>351</v>
+        <v>50</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="I55">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2802,7 +2685,7 @@
         <v>64</v>
       </c>
       <c r="B56">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2814,16 +2697,16 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2834,7 +2717,7 @@
         <v>65</v>
       </c>
       <c r="B57">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2843,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2852,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2866,13 +2749,13 @@
         <v>66</v>
       </c>
       <c r="B58">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2890,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2898,13 +2781,13 @@
         <v>67</v>
       </c>
       <c r="B59">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2916,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J59">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2939,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2948,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2962,13 +2845,13 @@
         <v>69</v>
       </c>
       <c r="B61">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2980,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="I61">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2994,7 +2877,7 @@
         <v>70</v>
       </c>
       <c r="B62">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3003,19 +2886,19 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3026,7 +2909,7 @@
         <v>71</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3044,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I63">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3058,7 +2941,7 @@
         <v>72</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3076,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3090,7 +2973,7 @@
         <v>73</v>
       </c>
       <c r="B65">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3105,13 +2988,13 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3122,7 +3005,7 @@
         <v>74</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3134,13 +3017,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -3154,7 +3037,7 @@
         <v>75</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3163,16 +3046,16 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3186,7 +3069,7 @@
         <v>76</v>
       </c>
       <c r="B68">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3198,13 +3081,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3218,7 +3101,7 @@
         <v>77</v>
       </c>
       <c r="B69">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3230,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I69">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3250,7 +3133,7 @@
         <v>78</v>
       </c>
       <c r="B70">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3262,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3282,10 +3165,10 @@
         <v>79</v>
       </c>
       <c r="B71">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3294,13 +3177,13 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3314,13 +3197,13 @@
         <v>80</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3332,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3346,10 +3229,10 @@
         <v>81</v>
       </c>
       <c r="B73">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3358,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3378,16 +3261,16 @@
         <v>82</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3396,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3410,7 +3293,7 @@
         <v>83</v>
       </c>
       <c r="B75">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3428,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3442,7 +3325,7 @@
         <v>84</v>
       </c>
       <c r="B76">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3460,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3474,7 +3357,7 @@
         <v>85</v>
       </c>
       <c r="B77">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3492,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3506,7 +3389,7 @@
         <v>86</v>
       </c>
       <c r="B78">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3518,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3538,7 +3421,7 @@
         <v>87</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3556,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3570,7 +3453,7 @@
         <v>88</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3582,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3602,7 +3485,7 @@
         <v>89</v>
       </c>
       <c r="B81">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3611,16 +3494,16 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3634,7 +3517,7 @@
         <v>90</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3652,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3666,7 +3549,7 @@
         <v>91</v>
       </c>
       <c r="B83">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3681,10 +3564,10 @@
         <v>0</v>
       </c>
       <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
         <v>5</v>
-      </c>
-      <c r="H83">
-        <v>55</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3698,7 +3581,7 @@
         <v>92</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3713,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3730,7 +3613,7 @@
         <v>93</v>
       </c>
       <c r="B85">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3745,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I85">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -3762,7 +3645,7 @@
         <v>94</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3780,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3794,28 +3677,28 @@
         <v>95</v>
       </c>
       <c r="B87">
+        <v>20</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>10</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
+      <c r="I87">
         <v>10</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -3826,7 +3709,7 @@
         <v>96</v>
       </c>
       <c r="B88">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3838,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G88">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3858,7 +3741,7 @@
         <v>97</v>
       </c>
       <c r="B89">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3870,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -3890,13 +3773,13 @@
         <v>98</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3922,7 +3805,7 @@
         <v>99</v>
       </c>
       <c r="B91">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3940,10 +3823,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I91">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -3954,7 +3837,7 @@
         <v>100</v>
       </c>
       <c r="B92">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3966,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3986,7 +3869,7 @@
         <v>101</v>
       </c>
       <c r="B93">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3998,16 +3881,16 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -4018,7 +3901,7 @@
         <v>102</v>
       </c>
       <c r="B94">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4030,16 +3913,16 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G94">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4050,7 +3933,7 @@
         <v>103</v>
       </c>
       <c r="B95">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -4062,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4082,7 +3965,7 @@
         <v>104</v>
       </c>
       <c r="B96">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -4094,13 +3977,13 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4114,7 +3997,7 @@
         <v>105</v>
       </c>
       <c r="B97">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -4126,13 +4009,13 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4146,7 +4029,7 @@
         <v>106</v>
       </c>
       <c r="B98">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4164,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J98">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4178,7 +4061,7 @@
         <v>107</v>
       </c>
       <c r="B99">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -4187,22 +4070,22 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4210,7 +4093,7 @@
         <v>108</v>
       </c>
       <c r="B100">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -4222,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -4242,7 +4125,7 @@
         <v>109</v>
       </c>
       <c r="B101">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -4254,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I101">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -4274,28 +4157,28 @@
         <v>110</v>
       </c>
       <c r="B102">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -4306,7 +4189,7 @@
         <v>111</v>
       </c>
       <c r="B103">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -4318,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -4327,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -4338,19 +4221,19 @@
         <v>112</v>
       </c>
       <c r="B104">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -4370,7 +4253,7 @@
         <v>113</v>
       </c>
       <c r="B105">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4382,19 +4265,19 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I105">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4402,13 +4285,13 @@
         <v>114</v>
       </c>
       <c r="B106">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4420,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -4434,7 +4317,7 @@
         <v>115</v>
       </c>
       <c r="B107">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -4446,16 +4329,16 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -4498,7 +4381,7 @@
         <v>117</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -4510,13 +4393,13 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4530,7 +4413,7 @@
         <v>118</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -4542,16 +4425,16 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -4562,7 +4445,7 @@
         <v>119</v>
       </c>
       <c r="B111">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -4580,10 +4463,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I111">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -4626,19 +4509,19 @@
         <v>121</v>
       </c>
       <c r="B113">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4647,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -4658,7 +4541,7 @@
         <v>122</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4670,16 +4553,16 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -4690,7 +4573,7 @@
         <v>123</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4711,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -4722,7 +4605,7 @@
         <v>124</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4743,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -4754,7 +4637,7 @@
         <v>125</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -4766,16 +4649,16 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -4786,7 +4669,7 @@
         <v>126</v>
       </c>
       <c r="B118">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4798,19 +4681,19 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J118">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4818,28 +4701,28 @@
         <v>127</v>
       </c>
       <c r="B119">
+        <v>85</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>70</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
         <v>5</v>
       </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>5</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
       <c r="I119">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -4850,7 +4733,7 @@
         <v>128</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4859,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -4868,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -4882,7 +4765,7 @@
         <v>129</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4894,13 +4777,13 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -4914,7 +4797,7 @@
         <v>130</v>
       </c>
       <c r="B122">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4926,19 +4809,19 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4946,7 +4829,7 @@
         <v>131</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -4958,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4967,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -4978,7 +4861,7 @@
         <v>132</v>
       </c>
       <c r="B124">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -4996,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="H124">
+        <v>35</v>
+      </c>
+      <c r="I124">
         <v>10</v>
-      </c>
-      <c r="I124">
-        <v>5</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -5010,31 +4893,31 @@
         <v>133</v>
       </c>
       <c r="B125">
+        <v>27</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>12</v>
+      </c>
+      <c r="I125">
+        <v>10</v>
+      </c>
+      <c r="J125">
         <v>5</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>5</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -5042,7 +4925,7 @@
         <v>134</v>
       </c>
       <c r="B126">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -5051,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -5063,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="I126">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -5092,10 +4975,10 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I127">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -5106,25 +4989,25 @@
         <v>136</v>
       </c>
       <c r="B128">
+        <v>30</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>20</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
         <v>10</v>
       </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -5138,7 +5021,7 @@
         <v>137</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5156,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -5170,7 +5053,7 @@
         <v>138</v>
       </c>
       <c r="B130">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5182,16 +5065,16 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -5202,7 +5085,7 @@
         <v>139</v>
       </c>
       <c r="B131">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5214,13 +5097,13 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -5234,7 +5117,7 @@
         <v>140</v>
       </c>
       <c r="B132">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5246,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -5255,7 +5138,7 @@
         <v>20</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -5298,7 +5181,7 @@
         <v>142</v>
       </c>
       <c r="B134">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5310,16 +5193,16 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -5342,13 +5225,13 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5362,7 +5245,7 @@
         <v>144</v>
       </c>
       <c r="B136">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5374,13 +5257,13 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -5394,10 +5277,10 @@
         <v>145</v>
       </c>
       <c r="B137">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="C137">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -5406,16 +5289,16 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -5426,10 +5309,10 @@
         <v>146</v>
       </c>
       <c r="B138">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C138">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -5438,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -5458,7 +5341,7 @@
         <v>147</v>
       </c>
       <c r="B139">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -5476,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -5490,7 +5373,7 @@
         <v>148</v>
       </c>
       <c r="B140">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -5508,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I140">
         <v>5</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5522,7 +5405,7 @@
         <v>149</v>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -5534,13 +5417,13 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -5554,25 +5437,25 @@
         <v>150</v>
       </c>
       <c r="B142">
+        <v>69</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
         <v>15</v>
       </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>5</v>
-      </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -5586,7 +5469,7 @@
         <v>151</v>
       </c>
       <c r="B143">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -5598,13 +5481,13 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -5618,28 +5501,28 @@
         <v>152</v>
       </c>
       <c r="B144">
+        <v>51</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
         <v>10</v>
       </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
       <c r="I144">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -5650,7 +5533,7 @@
         <v>153</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -5671,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -5682,7 +5565,7 @@
         <v>154</v>
       </c>
       <c r="B146">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -5694,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -5714,10 +5597,10 @@
         <v>155</v>
       </c>
       <c r="B147">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C147">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -5726,16 +5609,16 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I147">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -5746,7 +5629,7 @@
         <v>156</v>
       </c>
       <c r="B148">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -5761,13 +5644,13 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -5778,10 +5661,10 @@
         <v>157</v>
       </c>
       <c r="B149">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C149">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -5790,13 +5673,13 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -5810,7 +5693,7 @@
         <v>158</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -5828,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -5842,7 +5725,7 @@
         <v>159</v>
       </c>
       <c r="B151">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -5860,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -5874,7 +5757,7 @@
         <v>160</v>
       </c>
       <c r="B152">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -5889,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="G152">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -5906,7 +5789,7 @@
         <v>161</v>
       </c>
       <c r="B153">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -5924,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -5938,7 +5821,7 @@
         <v>162</v>
       </c>
       <c r="B154">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -5950,13 +5833,13 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -5970,7 +5853,7 @@
         <v>163</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -5982,16 +5865,16 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -6002,7 +5885,7 @@
         <v>164</v>
       </c>
       <c r="B156">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6014,13 +5897,13 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G156">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -6034,10 +5917,10 @@
         <v>165</v>
       </c>
       <c r="B157">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C157">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -6046,13 +5929,13 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
       <c r="H157">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -6066,25 +5949,25 @@
         <v>166</v>
       </c>
       <c r="B158">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
         <v>100</v>
       </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -6098,7 +5981,7 @@
         <v>167</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6110,13 +5993,13 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -6130,10 +6013,10 @@
         <v>168</v>
       </c>
       <c r="B160">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -6145,13 +6028,13 @@
         <v>0</v>
       </c>
       <c r="G160">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <v>0</v>
       </c>
       <c r="I160">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -6162,7 +6045,7 @@
         <v>169</v>
       </c>
       <c r="B161">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -6174,19 +6057,19 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
       <c r="J161">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -6194,10 +6077,10 @@
         <v>170</v>
       </c>
       <c r="B162">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C162">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -6212,10 +6095,10 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -6226,7 +6109,7 @@
         <v>171</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -6238,13 +6121,13 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -6258,7 +6141,7 @@
         <v>172</v>
       </c>
       <c r="B164">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -6270,13 +6153,13 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -6290,10 +6173,10 @@
         <v>173</v>
       </c>
       <c r="B165">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="C165">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -6302,16 +6185,16 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I165">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -6322,7 +6205,7 @@
         <v>174</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -6340,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -6354,7 +6237,7 @@
         <v>175</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -6372,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -6398,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -6407,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="I168">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -6418,13 +6301,13 @@
         <v>177</v>
       </c>
       <c r="B169">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -6433,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="G169">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -6482,13 +6365,13 @@
         <v>179</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -6514,7 +6397,7 @@
         <v>180</v>
       </c>
       <c r="B172">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -6526,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -6538,1255 +6421,7 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
-      <c r="A173" t="s">
-        <v>181</v>
-      </c>
-      <c r="B173">
-        <v>25</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>25</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
-      <c r="A174" t="s">
-        <v>182</v>
-      </c>
-      <c r="B174">
-        <v>13</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>13</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
-      <c r="A175" t="s">
-        <v>183</v>
-      </c>
-      <c r="B175">
-        <v>20</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>5</v>
-      </c>
-      <c r="I175">
-        <v>11</v>
-      </c>
-      <c r="J175">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
-      <c r="A176" t="s">
-        <v>184</v>
-      </c>
-      <c r="B176">
-        <v>214</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <v>127</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-      <c r="H176">
-        <v>87</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
-      <c r="A177" t="s">
-        <v>185</v>
-      </c>
-      <c r="B177">
-        <v>40</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>27</v>
-      </c>
-      <c r="I177">
-        <v>13</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
-      <c r="A178" t="s">
-        <v>186</v>
-      </c>
-      <c r="B178">
-        <v>189</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="D178">
-        <v>96</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>93</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
-      <c r="A179" t="s">
-        <v>187</v>
-      </c>
-      <c r="B179">
-        <v>181</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="D179">
-        <v>181</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
-      <c r="A180" t="s">
-        <v>188</v>
-      </c>
-      <c r="B180">
-        <v>39</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
-      <c r="H180">
-        <v>15</v>
-      </c>
-      <c r="I180">
-        <v>22</v>
-      </c>
-      <c r="J180">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
-      <c r="A181" t="s">
-        <v>189</v>
-      </c>
-      <c r="B181">
-        <v>93</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181">
-        <v>48</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
-        <v>24</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>5</v>
-      </c>
-      <c r="I181">
-        <v>16</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
-      <c r="A182" t="s">
-        <v>190</v>
-      </c>
-      <c r="B182">
-        <v>81</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <v>49</v>
-      </c>
-      <c r="G182">
-        <v>0</v>
-      </c>
-      <c r="H182">
-        <v>32</v>
-      </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
-      <c r="A183" t="s">
-        <v>191</v>
-      </c>
-      <c r="B183">
-        <v>40</v>
-      </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-      <c r="G183">
-        <v>5</v>
-      </c>
-      <c r="H183">
-        <v>30</v>
-      </c>
-      <c r="I183">
-        <v>5</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10">
-      <c r="A184" t="s">
-        <v>192</v>
-      </c>
-      <c r="B184">
-        <v>15</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="G184">
-        <v>15</v>
-      </c>
-      <c r="H184">
-        <v>0</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10">
-      <c r="A185" t="s">
-        <v>193</v>
-      </c>
-      <c r="B185">
-        <v>55</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <v>25</v>
-      </c>
-      <c r="G185">
-        <v>10</v>
-      </c>
-      <c r="H185">
-        <v>15</v>
-      </c>
-      <c r="I185">
-        <v>5</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
-      <c r="A186" t="s">
-        <v>194</v>
-      </c>
-      <c r="B186">
-        <v>45</v>
-      </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>45</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
-      <c r="A187" t="s">
-        <v>195</v>
-      </c>
-      <c r="B187">
-        <v>10</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187">
-        <v>0</v>
-      </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-      <c r="H187">
-        <v>10</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
-      <c r="A188" t="s">
-        <v>196</v>
-      </c>
-      <c r="B188">
-        <v>10</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>10</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-      <c r="J188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
-      <c r="A189" t="s">
-        <v>197</v>
-      </c>
-      <c r="B189">
-        <v>40</v>
-      </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <v>5</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>35</v>
-      </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
-      <c r="A190" t="s">
-        <v>198</v>
-      </c>
-      <c r="B190">
-        <v>5</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>5</v>
-      </c>
-      <c r="G190">
-        <v>0</v>
-      </c>
-      <c r="H190">
-        <v>0</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-      <c r="J190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
-      <c r="A191" t="s">
-        <v>199</v>
-      </c>
-      <c r="B191">
-        <v>12</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191">
-        <v>0</v>
-      </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-      <c r="H191">
-        <v>12</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
-      <c r="J191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
-      <c r="A192" t="s">
-        <v>200</v>
-      </c>
-      <c r="B192">
-        <v>15</v>
-      </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>5</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <v>10</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10">
-      <c r="A193" t="s">
-        <v>201</v>
-      </c>
-      <c r="B193">
-        <v>20</v>
-      </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="D193">
-        <v>0</v>
-      </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193">
-        <v>5</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>15</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-      <c r="J193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10">
-      <c r="A194" t="s">
-        <v>202</v>
-      </c>
-      <c r="B194">
-        <v>27</v>
-      </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
-      </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
-      <c r="H194">
-        <v>12</v>
-      </c>
-      <c r="I194">
-        <v>15</v>
-      </c>
-      <c r="J194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
-      <c r="A195" t="s">
-        <v>203</v>
-      </c>
-      <c r="B195">
-        <v>20</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>10</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>5</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="J195">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
-      <c r="A196" t="s">
-        <v>204</v>
-      </c>
-      <c r="B196">
-        <v>41</v>
-      </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-      <c r="D196">
-        <v>0</v>
-      </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
-      <c r="G196">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>36</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-      <c r="J196">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
-      <c r="A197" t="s">
-        <v>205</v>
-      </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-      <c r="C197">
-        <v>0</v>
-      </c>
-      <c r="D197">
-        <v>0</v>
-      </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
-      <c r="G197">
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <v>0</v>
-      </c>
-      <c r="I197">
-        <v>0</v>
-      </c>
-      <c r="J197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
-      <c r="A198" t="s">
-        <v>206</v>
-      </c>
-      <c r="B198">
-        <v>63</v>
-      </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
-      <c r="G198">
-        <v>15</v>
-      </c>
-      <c r="H198">
-        <v>45</v>
-      </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
-      <c r="J198">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
-      <c r="A199" t="s">
-        <v>207</v>
-      </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-      <c r="C199">
-        <v>0</v>
-      </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-      <c r="F199">
-        <v>0</v>
-      </c>
-      <c r="G199">
-        <v>0</v>
-      </c>
-      <c r="H199">
-        <v>0</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
-      <c r="J199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
-      <c r="A200" t="s">
-        <v>208</v>
-      </c>
-      <c r="B200">
-        <v>5</v>
-      </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-      <c r="D200">
-        <v>0</v>
-      </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-      <c r="F200">
-        <v>0</v>
-      </c>
-      <c r="G200">
-        <v>0</v>
-      </c>
-      <c r="H200">
-        <v>0</v>
-      </c>
-      <c r="I200">
-        <v>5</v>
-      </c>
-      <c r="J200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
-      <c r="A201" t="s">
-        <v>209</v>
-      </c>
-      <c r="B201">
-        <v>5</v>
-      </c>
-      <c r="C201">
-        <v>0</v>
-      </c>
-      <c r="D201">
-        <v>0</v>
-      </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-      <c r="F201">
-        <v>0</v>
-      </c>
-      <c r="G201">
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <v>5</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
-      <c r="A202" t="s">
-        <v>210</v>
-      </c>
-      <c r="B202">
-        <v>10</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="E202">
-        <v>0</v>
-      </c>
-      <c r="F202">
-        <v>5</v>
-      </c>
-      <c r="G202">
-        <v>0</v>
-      </c>
-      <c r="H202">
-        <v>0</v>
-      </c>
-      <c r="I202">
-        <v>5</v>
-      </c>
-      <c r="J202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
-      <c r="A203" t="s">
-        <v>211</v>
-      </c>
-      <c r="B203">
-        <v>5</v>
-      </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-      <c r="D203">
-        <v>0</v>
-      </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-      <c r="F203">
-        <v>0</v>
-      </c>
-      <c r="G203">
-        <v>0</v>
-      </c>
-      <c r="H203">
-        <v>0</v>
-      </c>
-      <c r="I203">
-        <v>5</v>
-      </c>
-      <c r="J203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
-      <c r="A204" t="s">
-        <v>212</v>
-      </c>
-      <c r="B204">
-        <v>25</v>
-      </c>
-      <c r="C204">
-        <v>0</v>
-      </c>
-      <c r="D204">
-        <v>0</v>
-      </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-      <c r="F204">
-        <v>0</v>
-      </c>
-      <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="H204">
-        <v>0</v>
-      </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-      <c r="J204">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
-      <c r="A205" t="s">
-        <v>213</v>
-      </c>
-      <c r="B205">
-        <v>12</v>
-      </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
-      <c r="G205">
-        <v>0</v>
-      </c>
-      <c r="H205">
-        <v>12</v>
-      </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-      <c r="J205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
-      <c r="A206" t="s">
-        <v>214</v>
-      </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
-      </c>
-      <c r="H206">
-        <v>0</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
-      <c r="J206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
-      <c r="A207" t="s">
-        <v>215</v>
-      </c>
-      <c r="B207">
-        <v>10</v>
-      </c>
-      <c r="C207">
-        <v>0</v>
-      </c>
-      <c r="D207">
-        <v>0</v>
-      </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-      <c r="G207">
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <v>5</v>
-      </c>
-      <c r="I207">
-        <v>5</v>
-      </c>
-      <c r="J207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
-      <c r="A208" t="s">
-        <v>216</v>
-      </c>
-      <c r="B208">
-        <v>24</v>
-      </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-      <c r="D208">
-        <v>0</v>
-      </c>
-      <c r="E208">
-        <v>0</v>
-      </c>
-      <c r="F208">
-        <v>24</v>
-      </c>
-      <c r="G208">
-        <v>0</v>
-      </c>
-      <c r="H208">
-        <v>0</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
-      </c>
-      <c r="J208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
-      <c r="A209" t="s">
-        <v>217</v>
-      </c>
-      <c r="B209">
-        <v>34</v>
-      </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-      <c r="F209">
-        <v>34</v>
-      </c>
-      <c r="G209">
-        <v>0</v>
-      </c>
-      <c r="H209">
-        <v>0</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
-      </c>
-      <c r="J209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="A210" t="s">
-        <v>218</v>
-      </c>
-      <c r="B210">
-        <v>3</v>
-      </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-      <c r="D210">
-        <v>0</v>
-      </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
-      <c r="G210">
-        <v>0</v>
-      </c>
-      <c r="H210">
-        <v>0</v>
-      </c>
-      <c r="I210">
-        <v>0</v>
-      </c>
-      <c r="J210">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
-      <c r="A211" t="s">
-        <v>219</v>
-      </c>
-      <c r="B211">
-        <v>7</v>
-      </c>
-      <c r="C211">
-        <v>0</v>
-      </c>
-      <c r="D211">
-        <v>0</v>
-      </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-      <c r="F211">
-        <v>0</v>
-      </c>
-      <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="H211">
-        <v>5</v>
-      </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-      <c r="J211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/2/1/2/Suscripciones diarias por plazo original, bancos reciben tasa fija 2010 - Diaria.xlsx
+++ b/6/1/2/1/2/Suscripciones diarias por plazo original, bancos reciben tasa fija 2010 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>Serie</t>
   </si>
@@ -46,517 +46,634 @@
     <t>10 años y más</t>
   </si>
   <si>
-    <t>05-01-2009</t>
-  </si>
-  <si>
-    <t>07-01-2009</t>
-  </si>
-  <si>
-    <t>08-01-2009</t>
-  </si>
-  <si>
-    <t>09-01-2009</t>
-  </si>
-  <si>
-    <t>15-01-2009</t>
-  </si>
-  <si>
-    <t>22-01-2009</t>
-  </si>
-  <si>
-    <t>23-01-2009</t>
-  </si>
-  <si>
-    <t>27-01-2009</t>
-  </si>
-  <si>
-    <t>29-01-2009</t>
-  </si>
-  <si>
-    <t>03-02-2009</t>
-  </si>
-  <si>
-    <t>06-02-2009</t>
-  </si>
-  <si>
-    <t>09-02-2009</t>
-  </si>
-  <si>
-    <t>10-02-2009</t>
-  </si>
-  <si>
-    <t>12-02-2009</t>
-  </si>
-  <si>
-    <t>13-02-2009</t>
-  </si>
-  <si>
-    <t>19-02-2009</t>
-  </si>
-  <si>
-    <t>20-02-2009</t>
-  </si>
-  <si>
-    <t>23-02-2009</t>
-  </si>
-  <si>
-    <t>24-02-2009</t>
-  </si>
-  <si>
-    <t>26-02-2009</t>
-  </si>
-  <si>
-    <t>27-02-2009</t>
-  </si>
-  <si>
-    <t>03-03-2009</t>
-  </si>
-  <si>
-    <t>04-03-2009</t>
-  </si>
-  <si>
-    <t>05-03-2009</t>
-  </si>
-  <si>
-    <t>10-03-2009</t>
-  </si>
-  <si>
-    <t>12-03-2009</t>
-  </si>
-  <si>
-    <t>13-03-2009</t>
-  </si>
-  <si>
-    <t>16-03-2009</t>
-  </si>
-  <si>
-    <t>17-03-2009</t>
-  </si>
-  <si>
-    <t>18-03-2009</t>
-  </si>
-  <si>
-    <t>19-03-2009</t>
-  </si>
-  <si>
-    <t>20-03-2009</t>
-  </si>
-  <si>
-    <t>23-03-2009</t>
-  </si>
-  <si>
-    <t>24-03-2009</t>
-  </si>
-  <si>
-    <t>25-03-2009</t>
-  </si>
-  <si>
-    <t>26-03-2009</t>
-  </si>
-  <si>
-    <t>31-03-2009</t>
-  </si>
-  <si>
-    <t>01-04-2009</t>
-  </si>
-  <si>
-    <t>02-04-2009</t>
-  </si>
-  <si>
-    <t>03-04-2009</t>
-  </si>
-  <si>
-    <t>07-04-2009</t>
-  </si>
-  <si>
-    <t>08-04-2009</t>
-  </si>
-  <si>
-    <t>13-04-2009</t>
-  </si>
-  <si>
-    <t>14-04-2009</t>
-  </si>
-  <si>
-    <t>15-04-2009</t>
-  </si>
-  <si>
-    <t>16-04-2009</t>
-  </si>
-  <si>
-    <t>21-04-2009</t>
-  </si>
-  <si>
-    <t>22-04-2009</t>
-  </si>
-  <si>
-    <t>23-04-2009</t>
-  </si>
-  <si>
-    <t>24-04-2009</t>
-  </si>
-  <si>
-    <t>27-04-2009</t>
-  </si>
-  <si>
-    <t>28-04-2009</t>
-  </si>
-  <si>
-    <t>29-04-2009</t>
-  </si>
-  <si>
-    <t>30-04-2009</t>
-  </si>
-  <si>
-    <t>04-05-2009</t>
-  </si>
-  <si>
-    <t>06-05-2009</t>
-  </si>
-  <si>
-    <t>07-05-2009</t>
-  </si>
-  <si>
-    <t>08-05-2009</t>
-  </si>
-  <si>
-    <t>12-05-2009</t>
-  </si>
-  <si>
-    <t>13-05-2009</t>
-  </si>
-  <si>
-    <t>14-05-2009</t>
-  </si>
-  <si>
-    <t>15-05-2009</t>
-  </si>
-  <si>
-    <t>18-05-2009</t>
-  </si>
-  <si>
-    <t>20-05-2009</t>
-  </si>
-  <si>
-    <t>22-05-2009</t>
-  </si>
-  <si>
-    <t>27-05-2009</t>
-  </si>
-  <si>
-    <t>28-05-2009</t>
-  </si>
-  <si>
-    <t>29-05-2009</t>
-  </si>
-  <si>
-    <t>01-06-2009</t>
-  </si>
-  <si>
-    <t>02-06-2009</t>
-  </si>
-  <si>
-    <t>03-06-2009</t>
-  </si>
-  <si>
-    <t>04-06-2009</t>
-  </si>
-  <si>
-    <t>05-06-2009</t>
-  </si>
-  <si>
-    <t>08-06-2009</t>
-  </si>
-  <si>
-    <t>10-06-2009</t>
-  </si>
-  <si>
-    <t>12-06-2009</t>
-  </si>
-  <si>
-    <t>16-06-2009</t>
-  </si>
-  <si>
-    <t>17-06-2009</t>
-  </si>
-  <si>
-    <t>18-06-2009</t>
-  </si>
-  <si>
-    <t>24-06-2009</t>
-  </si>
-  <si>
-    <t>25-06-2009</t>
-  </si>
-  <si>
-    <t>02-07-2009</t>
-  </si>
-  <si>
-    <t>08-07-2009</t>
-  </si>
-  <si>
-    <t>09-07-2009</t>
-  </si>
-  <si>
-    <t>10-07-2009</t>
-  </si>
-  <si>
-    <t>13-07-2009</t>
-  </si>
-  <si>
-    <t>14-07-2009</t>
-  </si>
-  <si>
-    <t>15-07-2009</t>
-  </si>
-  <si>
-    <t>17-07-2009</t>
-  </si>
-  <si>
-    <t>20-07-2009</t>
-  </si>
-  <si>
-    <t>21-07-2009</t>
-  </si>
-  <si>
-    <t>23-07-2009</t>
-  </si>
-  <si>
-    <t>24-07-2009</t>
-  </si>
-  <si>
-    <t>27-07-2009</t>
-  </si>
-  <si>
-    <t>28-07-2009</t>
-  </si>
-  <si>
-    <t>29-07-2009</t>
-  </si>
-  <si>
-    <t>30-07-2009</t>
-  </si>
-  <si>
-    <t>31-07-2009</t>
-  </si>
-  <si>
-    <t>03-08-2009</t>
-  </si>
-  <si>
-    <t>05-08-2009</t>
-  </si>
-  <si>
-    <t>06-08-2009</t>
-  </si>
-  <si>
-    <t>07-08-2009</t>
-  </si>
-  <si>
-    <t>10-08-2009</t>
-  </si>
-  <si>
-    <t>11-08-2009</t>
-  </si>
-  <si>
-    <t>13-08-2009</t>
-  </si>
-  <si>
-    <t>14-08-2009</t>
-  </si>
-  <si>
-    <t>18-08-2009</t>
-  </si>
-  <si>
-    <t>19-08-2009</t>
-  </si>
-  <si>
-    <t>24-08-2009</t>
-  </si>
-  <si>
-    <t>25-08-2009</t>
-  </si>
-  <si>
-    <t>26-08-2009</t>
-  </si>
-  <si>
-    <t>28-08-2009</t>
-  </si>
-  <si>
-    <t>01-09-2009</t>
-  </si>
-  <si>
-    <t>02-09-2009</t>
-  </si>
-  <si>
-    <t>04-09-2009</t>
-  </si>
-  <si>
-    <t>08-09-2009</t>
-  </si>
-  <si>
-    <t>09-09-2009</t>
-  </si>
-  <si>
-    <t>11-09-2009</t>
-  </si>
-  <si>
-    <t>14-09-2009</t>
-  </si>
-  <si>
-    <t>15-09-2009</t>
-  </si>
-  <si>
-    <t>17-09-2009</t>
-  </si>
-  <si>
-    <t>22-09-2009</t>
-  </si>
-  <si>
-    <t>23-09-2009</t>
-  </si>
-  <si>
-    <t>24-09-2009</t>
-  </si>
-  <si>
-    <t>25-09-2009</t>
-  </si>
-  <si>
-    <t>29-09-2009</t>
-  </si>
-  <si>
-    <t>01-10-2009</t>
-  </si>
-  <si>
-    <t>02-10-2009</t>
-  </si>
-  <si>
-    <t>06-10-2009</t>
-  </si>
-  <si>
-    <t>07-10-2009</t>
-  </si>
-  <si>
-    <t>08-10-2009</t>
-  </si>
-  <si>
-    <t>09-10-2009</t>
-  </si>
-  <si>
-    <t>13-10-2009</t>
-  </si>
-  <si>
-    <t>14-10-2009</t>
-  </si>
-  <si>
-    <t>15-10-2009</t>
-  </si>
-  <si>
-    <t>16-10-2009</t>
-  </si>
-  <si>
-    <t>20-10-2009</t>
-  </si>
-  <si>
-    <t>21-10-2009</t>
-  </si>
-  <si>
-    <t>22-10-2009</t>
-  </si>
-  <si>
-    <t>23-10-2009</t>
-  </si>
-  <si>
-    <t>26-10-2009</t>
-  </si>
-  <si>
-    <t>27-10-2009</t>
-  </si>
-  <si>
-    <t>28-10-2009</t>
-  </si>
-  <si>
-    <t>29-10-2009</t>
-  </si>
-  <si>
-    <t>30-10-2009</t>
-  </si>
-  <si>
-    <t>03-11-2009</t>
-  </si>
-  <si>
-    <t>05-11-2009</t>
-  </si>
-  <si>
-    <t>06-11-2009</t>
-  </si>
-  <si>
-    <t>09-11-2009</t>
-  </si>
-  <si>
-    <t>10-11-2009</t>
-  </si>
-  <si>
-    <t>11-11-2009</t>
-  </si>
-  <si>
-    <t>12-11-2009</t>
-  </si>
-  <si>
-    <t>13-11-2009</t>
-  </si>
-  <si>
-    <t>16-11-2009</t>
-  </si>
-  <si>
-    <t>17-11-2009</t>
-  </si>
-  <si>
-    <t>18-11-2009</t>
-  </si>
-  <si>
-    <t>19-11-2009</t>
-  </si>
-  <si>
-    <t>20-11-2009</t>
-  </si>
-  <si>
-    <t>23-11-2009</t>
-  </si>
-  <si>
-    <t>25-11-2009</t>
-  </si>
-  <si>
-    <t>30-11-2009</t>
-  </si>
-  <si>
-    <t>01-12-2009</t>
-  </si>
-  <si>
-    <t>02-12-2009</t>
-  </si>
-  <si>
-    <t>04-12-2009</t>
-  </si>
-  <si>
-    <t>07-12-2009</t>
-  </si>
-  <si>
-    <t>15-12-2009</t>
-  </si>
-  <si>
-    <t>17-12-2009</t>
-  </si>
-  <si>
-    <t>18-12-2009</t>
-  </si>
-  <si>
-    <t>21-12-2009</t>
-  </si>
-  <si>
-    <t>22-12-2009</t>
-  </si>
-  <si>
-    <t>23-12-2009</t>
+    <t>05-01-2010</t>
+  </si>
+  <si>
+    <t>06-01-2010</t>
+  </si>
+  <si>
+    <t>07-01-2010</t>
+  </si>
+  <si>
+    <t>08-01-2010</t>
+  </si>
+  <si>
+    <t>11-01-2010</t>
+  </si>
+  <si>
+    <t>12-01-2010</t>
+  </si>
+  <si>
+    <t>13-01-2010</t>
+  </si>
+  <si>
+    <t>15-01-2010</t>
+  </si>
+  <si>
+    <t>19-01-2010</t>
+  </si>
+  <si>
+    <t>21-01-2010</t>
+  </si>
+  <si>
+    <t>22-01-2010</t>
+  </si>
+  <si>
+    <t>25-01-2010</t>
+  </si>
+  <si>
+    <t>26-01-2010</t>
+  </si>
+  <si>
+    <t>27-01-2010</t>
+  </si>
+  <si>
+    <t>29-01-2010</t>
+  </si>
+  <si>
+    <t>02-02-2010</t>
+  </si>
+  <si>
+    <t>03-02-2010</t>
+  </si>
+  <si>
+    <t>04-02-2010</t>
+  </si>
+  <si>
+    <t>05-02-2010</t>
+  </si>
+  <si>
+    <t>09-02-2010</t>
+  </si>
+  <si>
+    <t>10-02-2010</t>
+  </si>
+  <si>
+    <t>11-02-2010</t>
+  </si>
+  <si>
+    <t>12-02-2010</t>
+  </si>
+  <si>
+    <t>16-02-2010</t>
+  </si>
+  <si>
+    <t>17-02-2010</t>
+  </si>
+  <si>
+    <t>18-02-2010</t>
+  </si>
+  <si>
+    <t>19-02-2010</t>
+  </si>
+  <si>
+    <t>23-02-2010</t>
+  </si>
+  <si>
+    <t>24-02-2010</t>
+  </si>
+  <si>
+    <t>25-02-2010</t>
+  </si>
+  <si>
+    <t>26-02-2010</t>
+  </si>
+  <si>
+    <t>01-03-2010</t>
+  </si>
+  <si>
+    <t>02-03-2010</t>
+  </si>
+  <si>
+    <t>03-03-2010</t>
+  </si>
+  <si>
+    <t>04-03-2010</t>
+  </si>
+  <si>
+    <t>05-03-2010</t>
+  </si>
+  <si>
+    <t>08-03-2010</t>
+  </si>
+  <si>
+    <t>09-03-2010</t>
+  </si>
+  <si>
+    <t>10-03-2010</t>
+  </si>
+  <si>
+    <t>16-03-2010</t>
+  </si>
+  <si>
+    <t>17-03-2010</t>
+  </si>
+  <si>
+    <t>18-03-2010</t>
+  </si>
+  <si>
+    <t>19-03-2010</t>
+  </si>
+  <si>
+    <t>24-03-2010</t>
+  </si>
+  <si>
+    <t>25-03-2010</t>
+  </si>
+  <si>
+    <t>26-03-2010</t>
+  </si>
+  <si>
+    <t>29-03-2010</t>
+  </si>
+  <si>
+    <t>30-03-2010</t>
+  </si>
+  <si>
+    <t>05-04-2010</t>
+  </si>
+  <si>
+    <t>06-04-2010</t>
+  </si>
+  <si>
+    <t>07-04-2010</t>
+  </si>
+  <si>
+    <t>08-04-2010</t>
+  </si>
+  <si>
+    <t>09-04-2010</t>
+  </si>
+  <si>
+    <t>12-04-2010</t>
+  </si>
+  <si>
+    <t>13-04-2010</t>
+  </si>
+  <si>
+    <t>14-04-2010</t>
+  </si>
+  <si>
+    <t>15-04-2010</t>
+  </si>
+  <si>
+    <t>16-04-2010</t>
+  </si>
+  <si>
+    <t>19-04-2010</t>
+  </si>
+  <si>
+    <t>20-04-2010</t>
+  </si>
+  <si>
+    <t>22-04-2010</t>
+  </si>
+  <si>
+    <t>23-04-2010</t>
+  </si>
+  <si>
+    <t>26-04-2010</t>
+  </si>
+  <si>
+    <t>28-04-2010</t>
+  </si>
+  <si>
+    <t>29-04-2010</t>
+  </si>
+  <si>
+    <t>30-04-2010</t>
+  </si>
+  <si>
+    <t>04-05-2010</t>
+  </si>
+  <si>
+    <t>05-05-2010</t>
+  </si>
+  <si>
+    <t>06-05-2010</t>
+  </si>
+  <si>
+    <t>07-05-2010</t>
+  </si>
+  <si>
+    <t>10-05-2010</t>
+  </si>
+  <si>
+    <t>11-05-2010</t>
+  </si>
+  <si>
+    <t>12-05-2010</t>
+  </si>
+  <si>
+    <t>13-05-2010</t>
+  </si>
+  <si>
+    <t>14-05-2010</t>
+  </si>
+  <si>
+    <t>17-05-2010</t>
+  </si>
+  <si>
+    <t>18-05-2010</t>
+  </si>
+  <si>
+    <t>19-05-2010</t>
+  </si>
+  <si>
+    <t>20-05-2010</t>
+  </si>
+  <si>
+    <t>24-05-2010</t>
+  </si>
+  <si>
+    <t>25-05-2010</t>
+  </si>
+  <si>
+    <t>26-05-2010</t>
+  </si>
+  <si>
+    <t>27-05-2010</t>
+  </si>
+  <si>
+    <t>28-05-2010</t>
+  </si>
+  <si>
+    <t>03-06-2010</t>
+  </si>
+  <si>
+    <t>04-06-2010</t>
+  </si>
+  <si>
+    <t>07-06-2010</t>
+  </si>
+  <si>
+    <t>08-06-2010</t>
+  </si>
+  <si>
+    <t>09-06-2010</t>
+  </si>
+  <si>
+    <t>10-06-2010</t>
+  </si>
+  <si>
+    <t>11-06-2010</t>
+  </si>
+  <si>
+    <t>14-06-2010</t>
+  </si>
+  <si>
+    <t>15-06-2010</t>
+  </si>
+  <si>
+    <t>16-06-2010</t>
+  </si>
+  <si>
+    <t>17-06-2010</t>
+  </si>
+  <si>
+    <t>18-06-2010</t>
+  </si>
+  <si>
+    <t>21-06-2010</t>
+  </si>
+  <si>
+    <t>22-06-2010</t>
+  </si>
+  <si>
+    <t>23-06-2010</t>
+  </si>
+  <si>
+    <t>24-06-2010</t>
+  </si>
+  <si>
+    <t>29-06-2010</t>
+  </si>
+  <si>
+    <t>30-06-2010</t>
+  </si>
+  <si>
+    <t>01-07-2010</t>
+  </si>
+  <si>
+    <t>02-07-2010</t>
+  </si>
+  <si>
+    <t>06-07-2010</t>
+  </si>
+  <si>
+    <t>07-07-2010</t>
+  </si>
+  <si>
+    <t>08-07-2010</t>
+  </si>
+  <si>
+    <t>09-07-2010</t>
+  </si>
+  <si>
+    <t>12-07-2010</t>
+  </si>
+  <si>
+    <t>13-07-2010</t>
+  </si>
+  <si>
+    <t>14-07-2010</t>
+  </si>
+  <si>
+    <t>15-07-2010</t>
+  </si>
+  <si>
+    <t>20-07-2010</t>
+  </si>
+  <si>
+    <t>21-07-2010</t>
+  </si>
+  <si>
+    <t>22-07-2010</t>
+  </si>
+  <si>
+    <t>27-07-2010</t>
+  </si>
+  <si>
+    <t>28-07-2010</t>
+  </si>
+  <si>
+    <t>29-07-2010</t>
+  </si>
+  <si>
+    <t>30-07-2010</t>
+  </si>
+  <si>
+    <t>02-08-2010</t>
+  </si>
+  <si>
+    <t>04-08-2010</t>
+  </si>
+  <si>
+    <t>05-08-2010</t>
+  </si>
+  <si>
+    <t>06-08-2010</t>
+  </si>
+  <si>
+    <t>09-08-2010</t>
+  </si>
+  <si>
+    <t>10-08-2010</t>
+  </si>
+  <si>
+    <t>11-08-2010</t>
+  </si>
+  <si>
+    <t>12-08-2010</t>
+  </si>
+  <si>
+    <t>13-08-2010</t>
+  </si>
+  <si>
+    <t>16-08-2010</t>
+  </si>
+  <si>
+    <t>18-08-2010</t>
+  </si>
+  <si>
+    <t>19-08-2010</t>
+  </si>
+  <si>
+    <t>23-08-2010</t>
+  </si>
+  <si>
+    <t>24-08-2010</t>
+  </si>
+  <si>
+    <t>25-08-2010</t>
+  </si>
+  <si>
+    <t>26-08-2010</t>
+  </si>
+  <si>
+    <t>27-08-2010</t>
+  </si>
+  <si>
+    <t>30-08-2010</t>
+  </si>
+  <si>
+    <t>31-08-2010</t>
+  </si>
+  <si>
+    <t>01-09-2010</t>
+  </si>
+  <si>
+    <t>02-09-2010</t>
+  </si>
+  <si>
+    <t>03-09-2010</t>
+  </si>
+  <si>
+    <t>07-09-2010</t>
+  </si>
+  <si>
+    <t>08-09-2010</t>
+  </si>
+  <si>
+    <t>09-09-2010</t>
+  </si>
+  <si>
+    <t>10-09-2010</t>
+  </si>
+  <si>
+    <t>13-09-2010</t>
+  </si>
+  <si>
+    <t>14-09-2010</t>
+  </si>
+  <si>
+    <t>15-09-2010</t>
+  </si>
+  <si>
+    <t>16-09-2010</t>
+  </si>
+  <si>
+    <t>21-09-2010</t>
+  </si>
+  <si>
+    <t>22-09-2010</t>
+  </si>
+  <si>
+    <t>23-09-2010</t>
+  </si>
+  <si>
+    <t>24-09-2010</t>
+  </si>
+  <si>
+    <t>27-09-2010</t>
+  </si>
+  <si>
+    <t>28-09-2010</t>
+  </si>
+  <si>
+    <t>30-09-2010</t>
+  </si>
+  <si>
+    <t>01-10-2010</t>
+  </si>
+  <si>
+    <t>04-10-2010</t>
+  </si>
+  <si>
+    <t>05-10-2010</t>
+  </si>
+  <si>
+    <t>06-10-2010</t>
+  </si>
+  <si>
+    <t>07-10-2010</t>
+  </si>
+  <si>
+    <t>08-10-2010</t>
+  </si>
+  <si>
+    <t>13-10-2010</t>
+  </si>
+  <si>
+    <t>14-10-2010</t>
+  </si>
+  <si>
+    <t>15-10-2010</t>
+  </si>
+  <si>
+    <t>18-10-2010</t>
+  </si>
+  <si>
+    <t>20-10-2010</t>
+  </si>
+  <si>
+    <t>21-10-2010</t>
+  </si>
+  <si>
+    <t>26-10-2010</t>
+  </si>
+  <si>
+    <t>27-10-2010</t>
+  </si>
+  <si>
+    <t>28-10-2010</t>
+  </si>
+  <si>
+    <t>29-10-2010</t>
+  </si>
+  <si>
+    <t>02-11-2010</t>
+  </si>
+  <si>
+    <t>03-11-2010</t>
+  </si>
+  <si>
+    <t>04-11-2010</t>
+  </si>
+  <si>
+    <t>05-11-2010</t>
+  </si>
+  <si>
+    <t>08-11-2010</t>
+  </si>
+  <si>
+    <t>09-11-2010</t>
+  </si>
+  <si>
+    <t>10-11-2010</t>
+  </si>
+  <si>
+    <t>12-11-2010</t>
+  </si>
+  <si>
+    <t>15-11-2010</t>
+  </si>
+  <si>
+    <t>16-11-2010</t>
+  </si>
+  <si>
+    <t>17-11-2010</t>
+  </si>
+  <si>
+    <t>18-11-2010</t>
+  </si>
+  <si>
+    <t>19-11-2010</t>
+  </si>
+  <si>
+    <t>22-11-2010</t>
+  </si>
+  <si>
+    <t>23-11-2010</t>
+  </si>
+  <si>
+    <t>24-11-2010</t>
+  </si>
+  <si>
+    <t>25-11-2010</t>
+  </si>
+  <si>
+    <t>26-11-2010</t>
+  </si>
+  <si>
+    <t>29-11-2010</t>
+  </si>
+  <si>
+    <t>30-11-2010</t>
+  </si>
+  <si>
+    <t>01-12-2010</t>
+  </si>
+  <si>
+    <t>02-12-2010</t>
+  </si>
+  <si>
+    <t>03-12-2010</t>
+  </si>
+  <si>
+    <t>06-12-2010</t>
+  </si>
+  <si>
+    <t>07-12-2010</t>
+  </si>
+  <si>
+    <t>09-12-2010</t>
+  </si>
+  <si>
+    <t>10-12-2010</t>
+  </si>
+  <si>
+    <t>13-12-2010</t>
+  </si>
+  <si>
+    <t>14-12-2010</t>
+  </si>
+  <si>
+    <t>15-12-2010</t>
+  </si>
+  <si>
+    <t>16-12-2010</t>
+  </si>
+  <si>
+    <t>17-12-2010</t>
+  </si>
+  <si>
+    <t>20-12-2010</t>
+  </si>
+  <si>
+    <t>21-12-2010</t>
+  </si>
+  <si>
+    <t>22-12-2010</t>
+  </si>
+  <si>
+    <t>23-12-2010</t>
+  </si>
+  <si>
+    <t>24-12-2010</t>
+  </si>
+  <si>
+    <t>28-12-2010</t>
   </si>
 </sst>
 </file>
@@ -914,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -957,7 +1074,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -966,16 +1083,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -989,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1001,16 +1118,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1021,7 +1138,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1039,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1053,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1071,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1085,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1097,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1117,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1135,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1149,7 +1266,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1161,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1181,7 +1298,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1193,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1213,7 +1330,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1234,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1245,7 +1362,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1263,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1277,10 +1394,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1309,7 +1426,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1321,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1341,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1353,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1373,10 +1490,10 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1405,10 +1522,10 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1423,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1437,7 +1554,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1455,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1469,7 +1586,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1481,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1501,7 +1618,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1519,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1533,7 +1650,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1551,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1565,7 +1682,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1586,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1629,10 +1746,10 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="C23">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1647,13 +1764,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1661,7 +1778,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1679,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1693,10 +1810,10 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1705,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1725,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1737,19 +1854,19 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1757,28 +1874,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>20</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1821,13 +1938,13 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1885,7 +2002,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1897,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1917,7 +2034,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1929,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1949,7 +2066,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1961,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1981,7 +2098,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1993,13 +2110,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2013,7 +2130,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2028,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2045,7 +2162,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2063,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2077,7 +2194,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2089,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2109,7 +2226,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2121,13 +2238,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2141,7 +2258,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2153,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2173,7 +2290,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2185,13 +2302,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2205,10 +2322,10 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2217,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2237,7 +2354,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2252,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2269,7 +2386,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2281,16 +2398,16 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I43">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2301,13 +2418,13 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2319,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2333,7 +2450,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2354,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2365,7 +2482,7 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2377,13 +2494,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2397,13 +2514,13 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2415,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2429,13 +2546,13 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2450,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2461,10 +2578,10 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2485,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2493,7 +2610,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2505,16 +2622,16 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2525,7 +2642,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2537,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2546,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2557,7 +2674,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2575,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2589,7 +2706,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2601,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2621,10 +2738,10 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2633,16 +2750,16 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2653,28 +2770,28 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>50</v>
+        <v>351</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H55">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2685,7 +2802,7 @@
         <v>64</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2697,16 +2814,16 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2717,7 +2834,7 @@
         <v>65</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2726,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2735,10 +2852,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2749,13 +2866,13 @@
         <v>66</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2773,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2781,13 +2898,13 @@
         <v>67</v>
       </c>
       <c r="B59">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2799,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I59">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2822,16 +2939,16 @@
         <v>0</v>
       </c>
       <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>20</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2845,28 +2962,28 @@
         <v>69</v>
       </c>
       <c r="B61">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>55</v>
+      </c>
+      <c r="I61">
         <v>10</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>5</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2877,7 +2994,7 @@
         <v>70</v>
       </c>
       <c r="B62">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2886,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I62">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2909,7 +3026,7 @@
         <v>71</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2927,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2941,7 +3058,7 @@
         <v>72</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2959,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I64">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2973,7 +3090,7 @@
         <v>73</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2988,13 +3105,13 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3005,7 +3122,7 @@
         <v>74</v>
       </c>
       <c r="B66">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3017,13 +3134,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -3037,7 +3154,7 @@
         <v>75</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3046,16 +3163,16 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3069,7 +3186,7 @@
         <v>76</v>
       </c>
       <c r="B68">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3081,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3101,7 +3218,7 @@
         <v>77</v>
       </c>
       <c r="B69">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3113,16 +3230,16 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H69">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3133,7 +3250,7 @@
         <v>78</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3145,13 +3262,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3165,10 +3282,10 @@
         <v>79</v>
       </c>
       <c r="B71">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="C71">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3177,13 +3294,13 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H71">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3197,13 +3314,13 @@
         <v>80</v>
       </c>
       <c r="B72">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3215,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3229,10 +3346,10 @@
         <v>81</v>
       </c>
       <c r="B73">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="C73">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3241,19 +3358,19 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I73">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3261,16 +3378,16 @@
         <v>82</v>
       </c>
       <c r="B74">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3279,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3293,7 +3410,7 @@
         <v>83</v>
       </c>
       <c r="B75">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3311,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I75">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3325,7 +3442,7 @@
         <v>84</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3343,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3357,7 +3474,7 @@
         <v>85</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3375,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3389,7 +3506,7 @@
         <v>86</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3401,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3421,7 +3538,7 @@
         <v>87</v>
       </c>
       <c r="B79">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3439,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3453,7 +3570,7 @@
         <v>88</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3465,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3485,7 +3602,7 @@
         <v>89</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3494,16 +3611,16 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3517,7 +3634,7 @@
         <v>90</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3535,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3549,7 +3666,7 @@
         <v>91</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3564,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3581,7 +3698,7 @@
         <v>92</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3596,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3613,7 +3730,7 @@
         <v>93</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3628,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -3645,7 +3762,7 @@
         <v>94</v>
       </c>
       <c r="B86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3663,13 +3780,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3677,13 +3794,13 @@
         <v>95</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3695,10 +3812,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -3709,7 +3826,7 @@
         <v>96</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3721,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3741,7 +3858,7 @@
         <v>97</v>
       </c>
       <c r="B89">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3753,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -3773,13 +3890,13 @@
         <v>98</v>
       </c>
       <c r="B90">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3805,7 +3922,7 @@
         <v>99</v>
       </c>
       <c r="B91">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3823,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -3837,7 +3954,7 @@
         <v>100</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3849,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3869,7 +3986,7 @@
         <v>101</v>
       </c>
       <c r="B93">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3881,16 +3998,16 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H93">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -3901,7 +4018,7 @@
         <v>102</v>
       </c>
       <c r="B94">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3913,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -3933,7 +4050,7 @@
         <v>103</v>
       </c>
       <c r="B95">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3945,13 +4062,13 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -3965,7 +4082,7 @@
         <v>104</v>
       </c>
       <c r="B96">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3977,13 +4094,13 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -3997,7 +4114,7 @@
         <v>105</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -4009,13 +4126,13 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4029,7 +4146,7 @@
         <v>106</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4047,13 +4164,13 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4061,7 +4178,7 @@
         <v>107</v>
       </c>
       <c r="B99">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -4070,22 +4187,22 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F99">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4093,7 +4210,7 @@
         <v>108</v>
       </c>
       <c r="B100">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -4105,13 +4222,13 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -4125,7 +4242,7 @@
         <v>109</v>
       </c>
       <c r="B101">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -4137,16 +4254,16 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I101">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -4157,28 +4274,28 @@
         <v>110</v>
       </c>
       <c r="B102">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I102">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -4189,7 +4306,7 @@
         <v>111</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -4201,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -4210,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -4221,19 +4338,19 @@
         <v>112</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -4253,7 +4370,7 @@
         <v>113</v>
       </c>
       <c r="B105">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4265,19 +4382,19 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4285,13 +4402,13 @@
         <v>114</v>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4303,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -4317,7 +4434,7 @@
         <v>115</v>
       </c>
       <c r="B107">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -4329,16 +4446,16 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -4381,7 +4498,7 @@
         <v>117</v>
       </c>
       <c r="B109">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -4393,13 +4510,13 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4413,7 +4530,7 @@
         <v>118</v>
       </c>
       <c r="B110">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -4425,16 +4542,16 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -4445,7 +4562,7 @@
         <v>119</v>
       </c>
       <c r="B111">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -4463,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I111">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -4509,19 +4626,19 @@
         <v>121</v>
       </c>
       <c r="B113">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4530,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -4541,7 +4658,7 @@
         <v>122</v>
       </c>
       <c r="B114">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4553,16 +4670,16 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="I114">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -4573,7 +4690,7 @@
         <v>123</v>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4594,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -4605,7 +4722,7 @@
         <v>124</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4626,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -4637,7 +4754,7 @@
         <v>125</v>
       </c>
       <c r="B117">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -4649,16 +4766,16 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -4669,7 +4786,7 @@
         <v>126</v>
       </c>
       <c r="B118">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4681,19 +4798,19 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G118">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4701,28 +4818,28 @@
         <v>127</v>
       </c>
       <c r="B119">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -4733,7 +4850,7 @@
         <v>128</v>
       </c>
       <c r="B120">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4742,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -4751,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -4765,7 +4882,7 @@
         <v>129</v>
       </c>
       <c r="B121">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4777,13 +4894,13 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -4797,7 +4914,7 @@
         <v>130</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4809,19 +4926,19 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4829,7 +4946,7 @@
         <v>131</v>
       </c>
       <c r="B123">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -4841,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4850,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -4861,7 +4978,7 @@
         <v>132</v>
       </c>
       <c r="B124">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -4879,10 +4996,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I124">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -4893,7 +5010,7 @@
         <v>133</v>
       </c>
       <c r="B125">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -4911,13 +5028,13 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J125">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4925,7 +5042,7 @@
         <v>134</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -4934,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -4946,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -4975,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
         <v>10</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -4989,25 +5106,25 @@
         <v>136</v>
       </c>
       <c r="B128">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
         <v>10</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -5021,7 +5138,7 @@
         <v>137</v>
       </c>
       <c r="B129">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5039,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -5053,7 +5170,7 @@
         <v>138</v>
       </c>
       <c r="B130">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -5065,16 +5182,16 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -5085,7 +5202,7 @@
         <v>139</v>
       </c>
       <c r="B131">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5097,13 +5214,13 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -5117,7 +5234,7 @@
         <v>140</v>
       </c>
       <c r="B132">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -5129,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -5138,7 +5255,7 @@
         <v>20</v>
       </c>
       <c r="I132">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -5181,7 +5298,7 @@
         <v>142</v>
       </c>
       <c r="B134">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5193,16 +5310,16 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I134">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -5225,13 +5342,13 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5245,7 +5362,7 @@
         <v>144</v>
       </c>
       <c r="B136">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5257,13 +5374,13 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -5277,10 +5394,10 @@
         <v>145</v>
       </c>
       <c r="B137">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -5289,16 +5406,16 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I137">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -5309,10 +5426,10 @@
         <v>146</v>
       </c>
       <c r="B138">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -5321,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -5341,7 +5458,7 @@
         <v>147</v>
       </c>
       <c r="B139">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -5359,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -5373,7 +5490,7 @@
         <v>148</v>
       </c>
       <c r="B140">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -5391,13 +5508,13 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I140">
         <v>5</v>
       </c>
       <c r="J140">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5405,7 +5522,7 @@
         <v>149</v>
       </c>
       <c r="B141">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -5417,13 +5534,13 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -5437,7 +5554,7 @@
         <v>150</v>
       </c>
       <c r="B142">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -5449,13 +5566,13 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -5469,7 +5586,7 @@
         <v>151</v>
       </c>
       <c r="B143">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -5481,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -5501,7 +5618,7 @@
         <v>152</v>
       </c>
       <c r="B144">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -5519,10 +5636,10 @@
         <v>0</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>10</v>
-      </c>
-      <c r="I144">
-        <v>41</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -5533,7 +5650,7 @@
         <v>153</v>
       </c>
       <c r="B145">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -5554,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -5565,7 +5682,7 @@
         <v>154</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -5577,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -5597,10 +5714,10 @@
         <v>155</v>
       </c>
       <c r="B147">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -5609,16 +5726,16 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -5629,7 +5746,7 @@
         <v>156</v>
       </c>
       <c r="B148">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -5644,13 +5761,13 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -5661,10 +5778,10 @@
         <v>157</v>
       </c>
       <c r="B149">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -5673,13 +5790,13 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -5693,7 +5810,7 @@
         <v>158</v>
       </c>
       <c r="B150">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -5711,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -5725,7 +5842,7 @@
         <v>159</v>
       </c>
       <c r="B151">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -5743,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -5757,7 +5874,7 @@
         <v>160</v>
       </c>
       <c r="B152">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -5772,10 +5889,10 @@
         <v>0</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H152">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -5789,7 +5906,7 @@
         <v>161</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -5807,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -5821,7 +5938,7 @@
         <v>162</v>
       </c>
       <c r="B154">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -5833,13 +5950,13 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
       <c r="H154">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -5853,7 +5970,7 @@
         <v>163</v>
       </c>
       <c r="B155">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -5865,16 +5982,16 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -5885,7 +6002,7 @@
         <v>164</v>
       </c>
       <c r="B156">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -5897,13 +6014,13 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H156">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -5917,10 +6034,10 @@
         <v>165</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -5929,13 +6046,13 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -5949,10 +6066,10 @@
         <v>166</v>
       </c>
       <c r="B158">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -5961,13 +6078,13 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -5981,7 +6098,7 @@
         <v>167</v>
       </c>
       <c r="B159">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -5993,13 +6110,13 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -6013,10 +6130,10 @@
         <v>168</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -6028,13 +6145,13 @@
         <v>0</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H160">
         <v>0</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -6045,7 +6162,7 @@
         <v>169</v>
       </c>
       <c r="B161">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -6057,19 +6174,19 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
       <c r="J161">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -6077,10 +6194,10 @@
         <v>170</v>
       </c>
       <c r="B162">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -6095,10 +6212,10 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I162">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -6109,7 +6226,7 @@
         <v>171</v>
       </c>
       <c r="B163">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -6121,13 +6238,13 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -6141,7 +6258,7 @@
         <v>172</v>
       </c>
       <c r="B164">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -6153,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -6173,10 +6290,10 @@
         <v>173</v>
       </c>
       <c r="B165">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -6185,16 +6302,16 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -6205,7 +6322,7 @@
         <v>174</v>
       </c>
       <c r="B166">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -6223,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -6237,7 +6354,7 @@
         <v>175</v>
       </c>
       <c r="B167">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -6255,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -6281,16 +6398,16 @@
         <v>0</v>
       </c>
       <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
         <v>10</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -6301,13 +6418,13 @@
         <v>177</v>
       </c>
       <c r="B169">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C169">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -6316,13 +6433,13 @@
         <v>0</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -6365,13 +6482,13 @@
         <v>179</v>
       </c>
       <c r="B171">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="D171">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -6397,7 +6514,7 @@
         <v>180</v>
       </c>
       <c r="B172">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -6409,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -6421,7 +6538,1255 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <v>0</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173">
+        <v>25</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>25</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174">
+        <v>13</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>13</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
+        <v>183</v>
+      </c>
+      <c r="B175">
+        <v>20</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>5</v>
+      </c>
+      <c r="I175">
+        <v>11</v>
+      </c>
+      <c r="J175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" t="s">
+        <v>184</v>
+      </c>
+      <c r="B176">
+        <v>214</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>127</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>87</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
+        <v>185</v>
+      </c>
+      <c r="B177">
+        <v>40</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>27</v>
+      </c>
+      <c r="I177">
+        <v>13</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
+        <v>186</v>
+      </c>
+      <c r="B178">
+        <v>189</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>96</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>93</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179">
+        <v>181</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>181</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" t="s">
+        <v>188</v>
+      </c>
+      <c r="B180">
+        <v>39</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>15</v>
+      </c>
+      <c r="I180">
+        <v>22</v>
+      </c>
+      <c r="J180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181">
+        <v>93</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>48</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>24</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>5</v>
+      </c>
+      <c r="I181">
+        <v>16</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182">
+        <v>81</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>49</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>32</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" t="s">
+        <v>191</v>
+      </c>
+      <c r="B183">
+        <v>40</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>5</v>
+      </c>
+      <c r="H183">
+        <v>30</v>
+      </c>
+      <c r="I183">
+        <v>5</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" t="s">
+        <v>192</v>
+      </c>
+      <c r="B184">
+        <v>15</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>15</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" t="s">
+        <v>193</v>
+      </c>
+      <c r="B185">
+        <v>55</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>25</v>
+      </c>
+      <c r="G185">
+        <v>10</v>
+      </c>
+      <c r="H185">
+        <v>15</v>
+      </c>
+      <c r="I185">
+        <v>5</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" t="s">
+        <v>194</v>
+      </c>
+      <c r="B186">
+        <v>45</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>45</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" t="s">
+        <v>195</v>
+      </c>
+      <c r="B187">
+        <v>10</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>10</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
+        <v>196</v>
+      </c>
+      <c r="B188">
+        <v>10</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>10</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" t="s">
+        <v>197</v>
+      </c>
+      <c r="B189">
+        <v>40</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>5</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>35</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" t="s">
+        <v>198</v>
+      </c>
+      <c r="B190">
+        <v>5</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>5</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" t="s">
+        <v>199</v>
+      </c>
+      <c r="B191">
+        <v>12</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>12</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192">
+        <v>15</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>5</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>10</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" t="s">
+        <v>201</v>
+      </c>
+      <c r="B193">
+        <v>20</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>5</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>15</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" t="s">
+        <v>202</v>
+      </c>
+      <c r="B194">
+        <v>27</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>12</v>
+      </c>
+      <c r="I194">
+        <v>15</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" t="s">
+        <v>203</v>
+      </c>
+      <c r="B195">
+        <v>20</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>10</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>5</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" t="s">
+        <v>204</v>
+      </c>
+      <c r="B196">
+        <v>41</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>36</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" t="s">
+        <v>205</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" t="s">
+        <v>206</v>
+      </c>
+      <c r="B198">
+        <v>63</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>15</v>
+      </c>
+      <c r="H198">
+        <v>45</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" t="s">
+        <v>207</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" t="s">
+        <v>208</v>
+      </c>
+      <c r="B200">
+        <v>5</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>5</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201" t="s">
+        <v>209</v>
+      </c>
+      <c r="B201">
+        <v>5</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>5</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" t="s">
+        <v>210</v>
+      </c>
+      <c r="B202">
+        <v>10</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>5</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>5</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" t="s">
+        <v>211</v>
+      </c>
+      <c r="B203">
+        <v>5</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>5</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" t="s">
+        <v>212</v>
+      </c>
+      <c r="B204">
+        <v>25</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" t="s">
+        <v>213</v>
+      </c>
+      <c r="B205">
+        <v>12</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>12</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" t="s">
+        <v>214</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" t="s">
+        <v>215</v>
+      </c>
+      <c r="B207">
+        <v>10</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>5</v>
+      </c>
+      <c r="I207">
+        <v>5</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208" t="s">
+        <v>216</v>
+      </c>
+      <c r="B208">
+        <v>24</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>24</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" t="s">
+        <v>217</v>
+      </c>
+      <c r="B209">
+        <v>34</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>34</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" t="s">
+        <v>218</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" t="s">
+        <v>219</v>
+      </c>
+      <c r="B211">
+        <v>7</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>5</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
